--- a/src/test/resources/exec/noerror/Test01Test.xlsx
+++ b/src/test/resources/exec/noerror/Test01Test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="34">
   <si>
     <t>A. テストケース</t>
     <phoneticPr fontId="5"/>
@@ -698,9 +698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H67"/>
+  <dimension ref="B2:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
@@ -872,200 +874,197 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="29" spans="2:8" s="3" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+    <row r="28" spans="2:8" s="3" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" s="3" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="C30" s="5" t="s">
+    <row r="31" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="C31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="D32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="C32" s="11" t="s">
+    <row r="33" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="C33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="2:8" ht="11.4" x14ac:dyDescent="0.2">
       <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="2:8" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="D34" s="8">
         <v>2</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>59</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H34" s="10">
         <v>41224.466099537036</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="2" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="2:8" s="2" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C38" s="1" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C39" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="3" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="C42" s="5" t="s">
+    <row r="42" spans="2:8" s="3" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="C43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="D44" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="D44" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="47" spans="2:8" s="3" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+    <row r="45" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="D45" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="48" spans="2:8" s="3" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="C48" s="5" t="s">
+    <row r="49" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="C49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="D50" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="D50" s="8">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8" t="s">
+    <row r="51" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>60</v>
       </c>
-      <c r="G50" s="9">
-        <v>1</v>
-      </c>
-      <c r="H50" s="10">
-        <v>41224.466099537036</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="D51" s="8">
-        <v>2</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="9">
-        <v>59</v>
-      </c>
       <c r="G51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="10">
         <v>41224.466099537036</v>
       </c>
     </row>
-    <row r="54" spans="2:8" s="3" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
+    <row r="52" spans="2:8" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="D52" s="8">
+        <v>2</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="9">
+        <v>59</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>41224.466099537036</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" s="3" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="C55" s="5" t="s">
+    <row r="56" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="C56" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="D57" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="D57" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="D58" s="12" t="s">
-        <v>20</v>
+      <c r="D58" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="D59" s="8" t="s">
-        <v>32</v>
+      <c r="D59" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1073,63 +1072,71 @@
     </row>
     <row r="60" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
       <c r="D60" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="D61" s="8">
-        <v>1</v>
+      <c r="D61" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="64" spans="2:8" s="3" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
-      <c r="B64" s="3" t="s">
+    <row r="62" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="65" spans="2:8" s="3" customFormat="1" ht="12.6" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="3:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="C65" s="5" t="s">
+    <row r="66" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="C66" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="3:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="2:8" s="4" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+      <c r="D67" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E67" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F67" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="3:8" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="C67" s="11"/>
-      <c r="D67" s="8">
-        <v>0</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="C68" s="11"/>
+      <c r="D68" s="8">
+        <v>0</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="E67" r:id="rId1" display="OK@systemout%"/>
-    <hyperlink ref="F67" r:id="rId2" display="OK@systemerr%"/>
+    <hyperlink ref="E68" r:id="rId1" display="OK@systemout%"/>
+    <hyperlink ref="F68" r:id="rId2" display="OK@systemerr%"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
